--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Col14a1</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col14a1</t>
-  </si>
-  <si>
-    <t>Cd44</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0536585</v>
+        <v>0.383616</v>
       </c>
       <c r="H2">
-        <v>2.107317</v>
+        <v>0.767232</v>
       </c>
       <c r="I2">
-        <v>0.03387265878680644</v>
+        <v>0.01319313124625663</v>
       </c>
       <c r="J2">
-        <v>0.02302596602807432</v>
+        <v>0.008874101700944673</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>20.62219625956125</v>
+        <v>13.199815323648</v>
       </c>
       <c r="R2">
-        <v>82.48878503824501</v>
+        <v>52.79926129459199</v>
       </c>
       <c r="S2">
-        <v>0.001048091511608678</v>
+        <v>0.0003029296122948357</v>
       </c>
       <c r="T2">
-        <v>0.0005036218054369376</v>
+        <v>0.0001407087607612045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0536585</v>
+        <v>0.383616</v>
       </c>
       <c r="H3">
-        <v>2.107317</v>
+        <v>0.767232</v>
       </c>
       <c r="I3">
-        <v>0.03387265878680644</v>
+        <v>0.01319313124625663</v>
       </c>
       <c r="J3">
-        <v>0.02302596602807432</v>
+        <v>0.008874101700944673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>121.6930713257655</v>
+        <v>44.306014946688</v>
       </c>
       <c r="R3">
-        <v>730.158427954593</v>
+        <v>265.836089680128</v>
       </c>
       <c r="S3">
-        <v>0.006184863797859997</v>
+        <v>0.00101680240223392</v>
       </c>
       <c r="T3">
-        <v>0.004457863036423646</v>
+        <v>0.0007084467817796256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0536585</v>
+        <v>0.383616</v>
       </c>
       <c r="H4">
-        <v>2.107317</v>
+        <v>0.767232</v>
       </c>
       <c r="I4">
-        <v>0.03387265878680644</v>
+        <v>0.01319313124625663</v>
       </c>
       <c r="J4">
-        <v>0.02302596602807432</v>
+        <v>0.008874101700944673</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>252.770856237868</v>
+        <v>140.510071965312</v>
       </c>
       <c r="R4">
-        <v>1516.625137427208</v>
+        <v>843.0604317918721</v>
       </c>
       <c r="S4">
-        <v>0.01284669127722691</v>
+        <v>0.003224640692337198</v>
       </c>
       <c r="T4">
-        <v>0.009259507089697156</v>
+        <v>0.002246735762880657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0536585</v>
+        <v>0.383616</v>
       </c>
       <c r="H5">
-        <v>2.107317</v>
+        <v>0.767232</v>
       </c>
       <c r="I5">
-        <v>0.03387265878680644</v>
+        <v>0.01319313124625663</v>
       </c>
       <c r="J5">
-        <v>0.02302596602807432</v>
+        <v>0.008874101700944673</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>93.08352619232325</v>
+        <v>46.477825857792</v>
       </c>
       <c r="R5">
-        <v>372.334104769293</v>
+        <v>185.911303431168</v>
       </c>
       <c r="S5">
-        <v>0.004730827524131695</v>
+        <v>0.001066644450864689</v>
       </c>
       <c r="T5">
-        <v>0.00227322506911355</v>
+        <v>0.00049544914977777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0536585</v>
+        <v>0.383616</v>
       </c>
       <c r="H6">
-        <v>2.107317</v>
+        <v>0.767232</v>
       </c>
       <c r="I6">
-        <v>0.03387265878680644</v>
+        <v>0.01319313124625663</v>
       </c>
       <c r="J6">
-        <v>0.02302596602807432</v>
+        <v>0.008874101700944673</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>19.0969937954465</v>
+        <v>257.901793198848</v>
       </c>
       <c r="R6">
-        <v>114.581962772679</v>
+        <v>1547.410759193088</v>
       </c>
       <c r="S6">
-        <v>0.0009705754344652381</v>
+        <v>0.00591872600549978</v>
       </c>
       <c r="T6">
-        <v>0.0006995614608134894</v>
+        <v>0.004123812435552307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0536585</v>
+        <v>0.383616</v>
       </c>
       <c r="H7">
-        <v>2.107317</v>
+        <v>0.767232</v>
       </c>
       <c r="I7">
-        <v>0.03387265878680644</v>
+        <v>0.01319313124625663</v>
       </c>
       <c r="J7">
-        <v>0.02302596602807432</v>
+        <v>0.008874101700944673</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>159.2100994865055</v>
+        <v>72.48025487232</v>
       </c>
       <c r="R7">
-        <v>955.260596919033</v>
+        <v>434.88152923392</v>
       </c>
       <c r="S7">
-        <v>0.008091609241513918</v>
+        <v>0.001663388083026205</v>
       </c>
       <c r="T7">
-        <v>0.005832187566589543</v>
+        <v>0.001158948810193108</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>83.75748</v>
       </c>
       <c r="I8">
-        <v>0.8975357578325946</v>
+        <v>0.960181906294936</v>
       </c>
       <c r="J8">
-        <v>0.9151906851589552</v>
+        <v>0.9687713699830552</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>546.4335901263</v>
+        <v>960.66836626048</v>
       </c>
       <c r="R8">
-        <v>3278.6015407578</v>
+        <v>5764.01019756288</v>
       </c>
       <c r="S8">
-        <v>0.0277716495498727</v>
+        <v>0.02204689146020366</v>
       </c>
       <c r="T8">
-        <v>0.02001696626394994</v>
+        <v>0.01536094846836599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>83.75748</v>
       </c>
       <c r="I9">
-        <v>0.8975357578325946</v>
+        <v>0.960181906294936</v>
       </c>
       <c r="J9">
-        <v>0.9151906851589552</v>
+        <v>0.9687713699830552</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
         <v>3224.54412813588</v>
@@ -1013,10 +1013,10 @@
         <v>29020.89715322292</v>
       </c>
       <c r="S9">
-        <v>0.1638825121713164</v>
+        <v>0.07400178552602908</v>
       </c>
       <c r="T9">
-        <v>0.1771823480359114</v>
+        <v>0.07733999253937708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>83.75748</v>
       </c>
       <c r="I10">
-        <v>0.8975357578325946</v>
+        <v>0.960181906294936</v>
       </c>
       <c r="J10">
-        <v>0.9151906851589552</v>
+        <v>0.9687713699830552</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>6697.758314142614</v>
+        <v>10226.17195531746</v>
       </c>
       <c r="R10">
-        <v>60279.82482728353</v>
+        <v>92035.54759785709</v>
       </c>
       <c r="S10">
-        <v>0.340403298829272</v>
+        <v>0.2346858823194888</v>
       </c>
       <c r="T10">
-        <v>0.3680286259139786</v>
+        <v>0.2452725195570067</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>83.75748</v>
       </c>
       <c r="I11">
-        <v>0.8975357578325946</v>
+        <v>0.960181906294936</v>
       </c>
       <c r="J11">
-        <v>0.9151906851589552</v>
+        <v>0.9687713699830552</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>2466.46694458182</v>
+        <v>3382.60619102392</v>
       </c>
       <c r="R11">
-        <v>14798.80166749092</v>
+        <v>20295.63714614352</v>
       </c>
       <c r="S11">
-        <v>0.1253544014295302</v>
+        <v>0.07762923623311692</v>
       </c>
       <c r="T11">
-        <v>0.09035166672208156</v>
+        <v>0.05408738458970504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>83.75748</v>
       </c>
       <c r="I12">
-        <v>0.8975357578325946</v>
+        <v>0.960181906294936</v>
       </c>
       <c r="J12">
-        <v>0.9151906851589552</v>
+        <v>0.9687713699830552</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>506.0197637983067</v>
+        <v>18769.81520219581</v>
       </c>
       <c r="R12">
-        <v>4554.17787418476</v>
+        <v>168928.3368197623</v>
       </c>
       <c r="S12">
-        <v>0.02571767878008339</v>
+        <v>0.4307585146180276</v>
       </c>
       <c r="T12">
-        <v>0.02780478924758668</v>
+        <v>0.4501899524453146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>83.75748</v>
       </c>
       <c r="I13">
-        <v>0.8975357578325946</v>
+        <v>0.960181906294936</v>
       </c>
       <c r="J13">
-        <v>0.9151906851589552</v>
+        <v>0.9687713699830552</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>4218.64602352628</v>
+        <v>5275.035015799867</v>
       </c>
       <c r="R13">
-        <v>37967.81421173652</v>
+        <v>47475.3151421988</v>
       </c>
       <c r="S13">
-        <v>0.2144062170725199</v>
+        <v>0.1210595961380701</v>
       </c>
       <c r="T13">
-        <v>0.2318062889754471</v>
+        <v>0.1265205723832857</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4357186666666666</v>
+        <v>0.029959</v>
       </c>
       <c r="H14">
-        <v>1.307156</v>
+        <v>0.089877</v>
       </c>
       <c r="I14">
-        <v>0.01400733702906801</v>
+        <v>0.001030335072068429</v>
       </c>
       <c r="J14">
-        <v>0.01428286757492751</v>
+        <v>0.001039552102331243</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>8.527882476109999</v>
+        <v>1.030857073952</v>
       </c>
       <c r="R14">
-        <v>51.16729485666</v>
+        <v>6.185142443712</v>
       </c>
       <c r="S14">
-        <v>0.0004334165538291433</v>
+        <v>2.365768960299097E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003123935623865444</v>
+        <v>1.6483255770008E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4357186666666666</v>
+        <v>0.029959</v>
       </c>
       <c r="H15">
-        <v>1.307156</v>
+        <v>0.089877</v>
       </c>
       <c r="I15">
-        <v>0.01400733702906801</v>
+        <v>0.001030335072068429</v>
       </c>
       <c r="J15">
-        <v>0.01428286757492751</v>
+        <v>0.001039552102331243</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>50.32365114563599</v>
+        <v>3.460136964537</v>
       </c>
       <c r="R15">
-        <v>452.9128603107239</v>
+        <v>31.141232680833</v>
       </c>
       <c r="S15">
-        <v>0.002557622424645646</v>
+        <v>7.940853136606921E-05</v>
       </c>
       <c r="T15">
-        <v>0.002765185501393186</v>
+        <v>8.299063569560107E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4357186666666666</v>
+        <v>0.029959</v>
       </c>
       <c r="H16">
-        <v>1.307156</v>
+        <v>0.089877</v>
       </c>
       <c r="I16">
-        <v>0.01400733702906801</v>
+        <v>0.001030335072068429</v>
       </c>
       <c r="J16">
-        <v>0.01428286757492751</v>
+        <v>0.001039552102331243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>104.5281563733938</v>
+        <v>10.97332031512967</v>
       </c>
       <c r="R16">
-        <v>940.7534073605441</v>
+        <v>98.75988283616701</v>
       </c>
       <c r="S16">
-        <v>0.005312483308768075</v>
+        <v>0.0002518325891040262</v>
       </c>
       <c r="T16">
-        <v>0.005743616289974491</v>
+        <v>0.0002631927111492023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4357186666666666</v>
+        <v>0.029959</v>
       </c>
       <c r="H17">
-        <v>1.307156</v>
+        <v>0.089877</v>
       </c>
       <c r="I17">
-        <v>0.01400733702906801</v>
+        <v>0.001030335072068429</v>
       </c>
       <c r="J17">
-        <v>0.01428286757492751</v>
+        <v>0.001039552102331243</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>38.492765845054</v>
+        <v>3.629747416358</v>
       </c>
       <c r="R17">
-        <v>230.956595070324</v>
+        <v>21.778484498148</v>
       </c>
       <c r="S17">
-        <v>0.001956335815679017</v>
+        <v>8.330101221913373E-05</v>
       </c>
       <c r="T17">
-        <v>0.001410067772642745</v>
+        <v>5.803913709878711E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.4357186666666666</v>
+        <v>0.029959</v>
       </c>
       <c r="H18">
-        <v>1.307156</v>
+        <v>0.089877</v>
       </c>
       <c r="I18">
-        <v>0.01400733702906801</v>
+        <v>0.001030335072068429</v>
       </c>
       <c r="J18">
-        <v>0.01428286757492751</v>
+        <v>0.001039552102331243</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>7.897166561930222</v>
+        <v>20.14118238666866</v>
       </c>
       <c r="R18">
-        <v>71.07449905737199</v>
+        <v>181.270641480018</v>
       </c>
       <c r="S18">
-        <v>0.0004013613843618347</v>
+        <v>0.0004622307526244159</v>
       </c>
       <c r="T18">
-        <v>0.0004339337464990399</v>
+        <v>0.0004830818973532577</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.4357186666666666</v>
+        <v>0.029959</v>
       </c>
       <c r="H19">
-        <v>1.307156</v>
+        <v>0.089877</v>
       </c>
       <c r="I19">
-        <v>0.01400733702906801</v>
+        <v>0.001030335072068429</v>
       </c>
       <c r="J19">
-        <v>0.01428286757492751</v>
+        <v>0.001039552102331243</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>65.83804170718267</v>
+        <v>5.660441576263334</v>
       </c>
       <c r="R19">
-        <v>592.5423753646439</v>
+        <v>50.94397418637</v>
       </c>
       <c r="S19">
-        <v>0.00334611754178429</v>
+        <v>0.0001299044971517926</v>
       </c>
       <c r="T19">
-        <v>0.003617670702031503</v>
+        <v>0.0001357644652643867</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.746564</v>
+        <v>0.389803</v>
       </c>
       <c r="H20">
-        <v>1.493128</v>
+        <v>0.779606</v>
       </c>
       <c r="I20">
-        <v>0.02400028817165463</v>
+        <v>0.01340591148227543</v>
       </c>
       <c r="J20">
-        <v>0.01631492300568284</v>
+        <v>0.009017224165137368</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>14.61174500877</v>
+        <v>13.412703361184</v>
       </c>
       <c r="R20">
-        <v>58.44698003508</v>
+        <v>53.650813444736</v>
       </c>
       <c r="S20">
-        <v>0.0007426195406506199</v>
+        <v>0.00030781529357838</v>
       </c>
       <c r="T20">
-        <v>0.0003568384913652971</v>
+        <v>0.0001429781267491445</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.746564</v>
+        <v>0.389803</v>
       </c>
       <c r="H21">
-        <v>1.493128</v>
+        <v>0.779606</v>
       </c>
       <c r="I21">
-        <v>0.02400028817165463</v>
+        <v>0.01340591148227543</v>
       </c>
       <c r="J21">
-        <v>0.01631492300568284</v>
+        <v>0.009017224165137368</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>86.22496387705199</v>
+        <v>45.020587108629</v>
       </c>
       <c r="R21">
-        <v>517.3497832623119</v>
+        <v>270.123522651774</v>
       </c>
       <c r="S21">
-        <v>0.004382251608453356</v>
+        <v>0.001033201500453549</v>
       </c>
       <c r="T21">
-        <v>0.003158594610990736</v>
+        <v>0.0007198726874740454</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.746564</v>
+        <v>0.389803</v>
       </c>
       <c r="H22">
-        <v>1.493128</v>
+        <v>0.779606</v>
       </c>
       <c r="I22">
-        <v>0.02400028817165463</v>
+        <v>0.01340591148227543</v>
       </c>
       <c r="J22">
-        <v>0.01631492300568284</v>
+        <v>0.009017224165137368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>179.0994155282453</v>
+        <v>142.7762334790377</v>
       </c>
       <c r="R22">
-        <v>1074.596493169472</v>
+        <v>856.657400874226</v>
       </c>
       <c r="S22">
-        <v>0.009102453239537888</v>
+        <v>0.003276648043343126</v>
       </c>
       <c r="T22">
-        <v>0.006560773391865264</v>
+        <v>0.002282971358280596</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.746564</v>
+        <v>0.389803</v>
       </c>
       <c r="H23">
-        <v>1.493128</v>
+        <v>0.779606</v>
       </c>
       <c r="I23">
-        <v>0.02400028817165463</v>
+        <v>0.01340591148227543</v>
       </c>
       <c r="J23">
-        <v>0.01631492300568284</v>
+        <v>0.009017224165137368</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>65.953826261778</v>
+        <v>47.227425219086</v>
       </c>
       <c r="R23">
-        <v>263.815305047112</v>
+        <v>188.909700876344</v>
       </c>
       <c r="S23">
-        <v>0.003352002114276926</v>
+        <v>0.001083847406991388</v>
       </c>
       <c r="T23">
-        <v>0.001610681260102479</v>
+        <v>0.0005034398068141686</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.746564</v>
+        <v>0.389803</v>
       </c>
       <c r="H24">
-        <v>1.493128</v>
+        <v>0.779606</v>
       </c>
       <c r="I24">
-        <v>0.02400028817165463</v>
+        <v>0.01340591148227543</v>
       </c>
       <c r="J24">
-        <v>0.01631492300568284</v>
+        <v>0.009017224165137368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>13.53107109742267</v>
+        <v>262.0612609857006</v>
       </c>
       <c r="R24">
-        <v>81.18642658453601</v>
+        <v>1572.367565914204</v>
       </c>
       <c r="S24">
-        <v>0.0006876959457510247</v>
+        <v>0.006014183853441542</v>
       </c>
       <c r="T24">
-        <v>0.0004956704685918273</v>
+        <v>0.004190321724890505</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.746564</v>
+        <v>0.389803</v>
       </c>
       <c r="H25">
-        <v>1.493128</v>
+        <v>0.779606</v>
       </c>
       <c r="I25">
-        <v>0.02400028817165463</v>
+        <v>0.01340591148227543</v>
       </c>
       <c r="J25">
-        <v>0.01631492300568284</v>
+        <v>0.009017224165137368</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>112.807450149212</v>
+        <v>73.64922419814334</v>
       </c>
       <c r="R25">
-        <v>676.8447008952719</v>
+        <v>441.89534518886</v>
       </c>
       <c r="S25">
-        <v>0.005733265722984816</v>
+        <v>0.001690215384467446</v>
       </c>
       <c r="T25">
-        <v>0.004132364782767239</v>
+        <v>0.001177640460928909</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.578834</v>
+        <v>0.3544106666666667</v>
       </c>
       <c r="H26">
-        <v>1.736502</v>
+        <v>1.063232</v>
       </c>
       <c r="I26">
-        <v>0.01860816059112352</v>
+        <v>0.01218871590446343</v>
       </c>
       <c r="J26">
-        <v>0.01897419138159238</v>
+        <v>0.01229775204853135</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>11.328934706745</v>
+        <v>12.19489111176533</v>
       </c>
       <c r="R26">
-        <v>67.97360824047</v>
+        <v>73.16934667059201</v>
       </c>
       <c r="S26">
-        <v>0.0005757757395118984</v>
+        <v>0.0002798670697950231</v>
       </c>
       <c r="T26">
-        <v>0.000415001764036855</v>
+        <v>0.0001949945480919162</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.578834</v>
+        <v>0.3544106666666667</v>
       </c>
       <c r="H27">
-        <v>1.736502</v>
+        <v>1.063232</v>
       </c>
       <c r="I27">
-        <v>0.01860816059112352</v>
+        <v>0.01218871590446343</v>
       </c>
       <c r="J27">
-        <v>0.01897419138159238</v>
+        <v>0.01229775204853135</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>66.85286290366199</v>
+        <v>40.93292327379201</v>
       </c>
       <c r="R27">
-        <v>601.675766132958</v>
+        <v>368.3963094641281</v>
       </c>
       <c r="S27">
-        <v>0.003397694273401195</v>
+        <v>0.0009393915197593212</v>
       </c>
       <c r="T27">
-        <v>0.003673433127752366</v>
+        <v>0.0009817672994415184</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.578834</v>
+        <v>0.3544106666666667</v>
       </c>
       <c r="H28">
-        <v>1.736502</v>
+        <v>1.063232</v>
       </c>
       <c r="I28">
-        <v>0.01860816059112352</v>
+        <v>0.01218871590446343</v>
       </c>
       <c r="J28">
-        <v>0.01897419138159238</v>
+        <v>0.01229775204853135</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>138.8612779184053</v>
+        <v>129.8128031119858</v>
       </c>
       <c r="R28">
-        <v>1249.751501265648</v>
+        <v>1168.315228007872</v>
       </c>
       <c r="S28">
-        <v>0.007057411579522551</v>
+        <v>0.002979143355677782</v>
       </c>
       <c r="T28">
-        <v>0.007630153688445208</v>
+        <v>0.003113531967695726</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.578834</v>
+        <v>0.3544106666666667</v>
       </c>
       <c r="H29">
-        <v>1.736502</v>
+        <v>1.063232</v>
       </c>
       <c r="I29">
-        <v>0.01860816059112352</v>
+        <v>0.01218871590446343</v>
       </c>
       <c r="J29">
-        <v>0.01897419138159238</v>
+        <v>0.01229775204853135</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>51.136027280193</v>
+        <v>42.93939055586134</v>
       </c>
       <c r="R29">
-        <v>306.816163681158</v>
+        <v>257.636343335168</v>
       </c>
       <c r="S29">
-        <v>0.002598910196333295</v>
+        <v>0.0009854390091321918</v>
       </c>
       <c r="T29">
-        <v>0.001873215979829241</v>
+        <v>0.0006865946550932677</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,14 +2264,14 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
         <v>3</v>
       </c>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.578834</v>
+        <v>0.3544106666666667</v>
       </c>
       <c r="H30">
-        <v>1.736502</v>
+        <v>1.063232</v>
       </c>
       <c r="I30">
-        <v>0.01860816059112352</v>
+        <v>0.01218871590446343</v>
       </c>
       <c r="J30">
-        <v>0.01897419138159238</v>
+        <v>0.01229775204853135</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>10.49105503025267</v>
+        <v>238.2672945396764</v>
       </c>
       <c r="R30">
-        <v>94.41949527227401</v>
+        <v>2144.405650857088</v>
       </c>
       <c r="S30">
-        <v>0.0005331917894016435</v>
+        <v>0.005468123408373255</v>
       </c>
       <c r="T30">
-        <v>0.0005764628083129145</v>
+        <v>0.005714789455441315</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.578834</v>
+        <v>0.3544106666666667</v>
       </c>
       <c r="H31">
-        <v>1.736502</v>
+        <v>1.063232</v>
       </c>
       <c r="I31">
-        <v>0.01860816059112352</v>
+        <v>0.01218871590446343</v>
       </c>
       <c r="J31">
-        <v>0.01897419138159238</v>
+        <v>0.01229775204853135</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N31">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O31">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P31">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q31">
-        <v>87.46308099462199</v>
+        <v>66.96221077710223</v>
       </c>
       <c r="R31">
-        <v>787.167728951598</v>
+        <v>602.65989699392</v>
       </c>
       <c r="S31">
-        <v>0.004445177012952932</v>
+        <v>0.001536751541725856</v>
       </c>
       <c r="T31">
-        <v>0.004805924013215798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.3725246666666666</v>
-      </c>
-      <c r="H32">
-        <v>1.117574</v>
-      </c>
-      <c r="I32">
-        <v>0.01197579758875272</v>
-      </c>
-      <c r="J32">
-        <v>0.01221136685076765</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>19.5719925</v>
-      </c>
-      <c r="N32">
-        <v>39.143985</v>
-      </c>
-      <c r="O32">
-        <v>0.03094210933382397</v>
-      </c>
-      <c r="P32">
-        <v>0.0218719077767638</v>
-      </c>
-      <c r="Q32">
-        <v>7.291049982064999</v>
-      </c>
-      <c r="R32">
-        <v>43.74629989238999</v>
-      </c>
-      <c r="S32">
-        <v>0.000370556438350932</v>
-      </c>
-      <c r="T32">
-        <v>0.0002670858895882205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.3725246666666666</v>
-      </c>
-      <c r="H33">
-        <v>1.117574</v>
-      </c>
-      <c r="I33">
-        <v>0.01197579758875272</v>
-      </c>
-      <c r="J33">
-        <v>0.01221136685076765</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>115.495743</v>
-      </c>
-      <c r="N33">
-        <v>346.487229</v>
-      </c>
-      <c r="O33">
-        <v>0.1825916246134487</v>
-      </c>
-      <c r="P33">
-        <v>0.1936015640337701</v>
-      </c>
-      <c r="Q33">
-        <v>43.02501316249399</v>
-      </c>
-      <c r="R33">
-        <v>387.2251184624459</v>
-      </c>
-      <c r="S33">
-        <v>0.002186680337772181</v>
-      </c>
-      <c r="T33">
-        <v>0.00236413972129875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.3725246666666666</v>
-      </c>
-      <c r="H34">
-        <v>1.117574</v>
-      </c>
-      <c r="I34">
-        <v>0.01197579758875272</v>
-      </c>
-      <c r="J34">
-        <v>0.01221136685076765</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>239.8982746666667</v>
-      </c>
-      <c r="N34">
-        <v>719.694824</v>
-      </c>
-      <c r="O34">
-        <v>0.3792643310961689</v>
-      </c>
-      <c r="P34">
-        <v>0.4021332732970915</v>
-      </c>
-      <c r="Q34">
-        <v>89.36802480410844</v>
-      </c>
-      <c r="R34">
-        <v>804.3122232369759</v>
-      </c>
-      <c r="S34">
-        <v>0.004541992861841411</v>
-      </c>
-      <c r="T34">
-        <v>0.004910596923130789</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.3725246666666666</v>
-      </c>
-      <c r="H35">
-        <v>1.117574</v>
-      </c>
-      <c r="I35">
-        <v>0.01197579758875272</v>
-      </c>
-      <c r="J35">
-        <v>0.01221136685076765</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>88.3431645</v>
-      </c>
-      <c r="N35">
-        <v>176.686329</v>
-      </c>
-      <c r="O35">
-        <v>0.139665077781682</v>
-      </c>
-      <c r="P35">
-        <v>0.09872441687536275</v>
-      </c>
-      <c r="Q35">
-        <v>32.910007907641</v>
-      </c>
-      <c r="R35">
-        <v>197.460047445846</v>
-      </c>
-      <c r="S35">
-        <v>0.001672600701730828</v>
-      </c>
-      <c r="T35">
-        <v>0.001205560071593171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.3725246666666666</v>
-      </c>
-      <c r="H36">
-        <v>1.117574</v>
-      </c>
-      <c r="I36">
-        <v>0.01197579758875272</v>
-      </c>
-      <c r="J36">
-        <v>0.01221136685076765</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>18.12446233333333</v>
-      </c>
-      <c r="N36">
-        <v>54.373387</v>
-      </c>
-      <c r="O36">
-        <v>0.02865365369084289</v>
-      </c>
-      <c r="P36">
-        <v>0.03038141635232814</v>
-      </c>
-      <c r="Q36">
-        <v>6.751809289237555</v>
-      </c>
-      <c r="R36">
-        <v>60.76628360313799</v>
-      </c>
-      <c r="S36">
-        <v>0.0003431503567797516</v>
-      </c>
-      <c r="T36">
-        <v>0.0003709986205241899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.3725246666666666</v>
-      </c>
-      <c r="H37">
-        <v>1.117574</v>
-      </c>
-      <c r="I37">
-        <v>0.01197579758875272</v>
-      </c>
-      <c r="J37">
-        <v>0.01221136685076765</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>151.102183</v>
-      </c>
-      <c r="N37">
-        <v>453.306549</v>
-      </c>
-      <c r="O37">
-        <v>0.2388832034840335</v>
-      </c>
-      <c r="P37">
-        <v>0.2532874216646838</v>
-      </c>
-      <c r="Q37">
-        <v>56.28929035468066</v>
-      </c>
-      <c r="R37">
-        <v>506.6036131921259</v>
-      </c>
-      <c r="S37">
-        <v>0.002860816892277613</v>
-      </c>
-      <c r="T37">
-        <v>0.003092985624632526</v>
+        <v>0.00160607412276761</v>
       </c>
     </row>
   </sheetData>
